--- a/INRC2_Simulator/log/compare--20150503--GreedyInit+Tabu.xlsx
+++ b/INRC2_Simulator/log/compare--20150503--GreedyInit+Tabu.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22680" yWindow="0" windowWidth="23580" windowHeight="12570"/>
+    <workbookView xWindow="23850" yWindow="0" windowWidth="23580" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="201504200152--Win8.1--GreedyIni" sheetId="1" r:id="rId1"/>
@@ -840,9 +840,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,6 +868,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1274,26 +1274,26 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="8" customWidth="1"/>
     <col min="9" max="13" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="20" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -1312,7 +1312,7 @@
       <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1331,90 +1331,90 @@
         <v>1</v>
       </c>
       <c r="I2" s="17"/>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <f>AVERAGE(A5:A128)</f>
         <v>622.67842857142864</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="12">
         <f t="shared" ref="B4:H4" si="0">AVERAGE(B5:B128)</f>
         <v>645.16841666666653</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f t="shared" ref="C4" si="1">AVERAGE(C5:C128)</f>
         <v>639.45441666666682</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f t="shared" si="0"/>
         <v>672.62930952380941</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f>AVERAGE(E5:E128)</f>
         <v>636.3689404761908</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>646.33933333333334</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <f t="shared" ref="G4" si="2">AVERAGE(G5:G128)</f>
         <v>635.3075119047619</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>640.98213095238111</v>
       </c>
@@ -1440,31 +1440,31 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>415</v>
       </c>
       <c r="B5" s="1">
         <v>415</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>415</v>
       </c>
       <c r="D5" s="1">
         <v>415</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>415</v>
       </c>
       <c r="F5" s="3">
         <v>415</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>415</v>
       </c>
       <c r="H5" s="1">
         <v>415</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>415</v>
       </c>
       <c r="J5" s="4">
@@ -1481,31 +1481,31 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>450.83300000000003</v>
       </c>
       <c r="B6" s="1">
         <v>459.16699999999997</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>444.16699999999997</v>
       </c>
       <c r="D6" s="1">
         <v>450.83300000000003</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>445</v>
       </c>
       <c r="F6" s="3">
         <v>460</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>450.83300000000003</v>
       </c>
       <c r="H6" s="1">
         <v>452.5</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>444.16699999999997</v>
       </c>
       <c r="J6" s="4">
@@ -1522,31 +1522,31 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>442.5</v>
       </c>
       <c r="B7" s="1">
         <v>427.5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>425.83300000000003</v>
       </c>
       <c r="D7" s="1">
         <v>430.83300000000003</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>439.16699999999997</v>
       </c>
       <c r="F7" s="3">
         <v>419.16699999999997</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>431.66699999999997</v>
       </c>
       <c r="H7" s="1">
         <v>418.33300000000003</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>432.5</v>
       </c>
       <c r="J7" s="4">
@@ -1563,31 +1563,31 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>348.33300000000003</v>
       </c>
       <c r="B8" s="1">
         <v>340</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>360.83300000000003</v>
       </c>
       <c r="D8" s="1">
         <v>360</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>348.33300000000003</v>
       </c>
       <c r="F8" s="3">
         <v>352.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>355.83300000000003</v>
       </c>
       <c r="H8" s="1">
         <v>339.16699999999997</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>340.83300000000003</v>
       </c>
       <c r="J8" s="4">
@@ -1604,31 +1604,31 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>337.5</v>
       </c>
       <c r="B9" s="1">
         <v>337.5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>337.5</v>
       </c>
       <c r="D9" s="1">
         <v>337.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>337.5</v>
       </c>
       <c r="F9" s="3">
         <v>337.70800000000003</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>337.5</v>
       </c>
       <c r="H9" s="1">
         <v>337.5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>337.5</v>
       </c>
       <c r="J9" s="4">
@@ -1645,31 +1645,31 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>322.91699999999997</v>
       </c>
       <c r="B10" s="1">
         <v>320.41699999999997</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>323.33300000000003</v>
       </c>
       <c r="D10" s="1">
         <v>323.33300000000003</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>321.25</v>
       </c>
       <c r="F10" s="3">
         <v>321.875</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>315</v>
       </c>
       <c r="H10" s="1">
         <v>323.33300000000003</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>321.66699999999997</v>
       </c>
       <c r="J10" s="4">
@@ -1686,31 +1686,31 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>526.04200000000003</v>
       </c>
       <c r="B11" s="1">
         <v>514.79200000000003</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>521.25</v>
       </c>
       <c r="D11" s="1">
         <v>498.75</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>509.375</v>
       </c>
       <c r="F11" s="3">
         <v>509.79199999999997</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>507.08300000000003</v>
       </c>
       <c r="H11" s="1">
         <v>490.41699999999997</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>510.41699999999997</v>
       </c>
       <c r="J11" s="4">
@@ -1727,31 +1727,31 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>318.54199999999997</v>
       </c>
       <c r="B12" s="1">
         <v>314.79199999999997</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>326.25</v>
       </c>
       <c r="D12" s="1">
         <v>324.58300000000003</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>315.20800000000003</v>
       </c>
       <c r="F12" s="3">
         <v>320.625</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>313.75</v>
       </c>
       <c r="H12" s="1">
         <v>314.58300000000003</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>322.08300000000003</v>
       </c>
       <c r="J12" s="4">
@@ -1768,31 +1768,31 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>359.58300000000003</v>
       </c>
       <c r="B13" s="1">
         <v>346.25</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>350.83300000000003</v>
       </c>
       <c r="D13" s="1">
         <v>358.33300000000003</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>347.08300000000003</v>
       </c>
       <c r="F13" s="3">
         <v>351.25</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>364.58300000000003</v>
       </c>
       <c r="H13" s="1">
         <v>353.33300000000003</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>333.75</v>
       </c>
       <c r="J13" s="4">
@@ -1809,31 +1809,31 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>470</v>
       </c>
       <c r="B14" s="1">
         <v>449.58300000000003</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>445</v>
       </c>
       <c r="D14" s="1">
         <v>455</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>455.41699999999997</v>
       </c>
       <c r="F14" s="3">
         <v>453.75</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>452.08300000000003</v>
       </c>
       <c r="H14" s="1">
         <v>435.83300000000003</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>445.41699999999997</v>
       </c>
       <c r="J14" s="4">
@@ -1850,31 +1850,31 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>492.91699999999997</v>
       </c>
       <c r="B15" s="1">
         <v>490</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>514.16700000000003</v>
       </c>
       <c r="D15" s="1">
         <v>521.66700000000003</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>488.33300000000003</v>
       </c>
       <c r="F15" s="3">
         <v>510.41699999999997</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>497.91699999999997</v>
       </c>
       <c r="H15" s="1">
         <v>511.66699999999997</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>490</v>
       </c>
       <c r="J15" s="4">
@@ -1891,31 +1891,31 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>380</v>
       </c>
       <c r="B16" s="1">
         <v>409.16699999999997</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>400.83300000000003</v>
       </c>
       <c r="D16" s="1">
         <v>382.5</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>401.66699999999997</v>
       </c>
       <c r="F16" s="3">
         <v>400.41699999999997</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>392.91699999999997</v>
       </c>
       <c r="H16" s="1">
         <v>403.33300000000003</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>377.5</v>
       </c>
       <c r="J16" s="4">
@@ -1932,31 +1932,31 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>560</v>
       </c>
       <c r="B17" s="1">
         <v>572.91700000000003</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>570.41700000000003</v>
       </c>
       <c r="D17" s="1">
         <v>577.91700000000003</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>570.41700000000003</v>
       </c>
       <c r="F17" s="3">
         <v>566.25</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>567.08299999999997</v>
       </c>
       <c r="H17" s="1">
         <v>574.58299999999997</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>569.58299999999997</v>
       </c>
       <c r="J17" s="4">
@@ -1973,31 +1973,31 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>569.16700000000003</v>
       </c>
       <c r="B18" s="1">
         <v>579.58299999999997</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>592.91700000000003</v>
       </c>
       <c r="D18" s="1">
         <v>587.08299999999997</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>586.25</v>
       </c>
       <c r="F18" s="3">
         <v>585.41700000000003</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>597.08299999999997</v>
       </c>
       <c r="H18" s="1">
         <v>595.41700000000003</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>575.41700000000003</v>
       </c>
       <c r="J18" s="4">
@@ -2014,31 +2014,31 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>447.08300000000003</v>
       </c>
       <c r="B19" s="1">
         <v>463.75</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>465</v>
       </c>
       <c r="D19" s="1">
         <v>498.33300000000003</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>492.91699999999997</v>
       </c>
       <c r="F19" s="3">
         <v>470.83300000000003</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>471.66699999999997</v>
       </c>
       <c r="H19" s="1">
         <v>475.83300000000003</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>463.33300000000003</v>
       </c>
       <c r="J19" s="4">
@@ -2055,31 +2055,31 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>458.75</v>
       </c>
       <c r="B20" s="1">
         <v>444.58300000000003</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>484.16699999999997</v>
       </c>
       <c r="D20" s="1">
         <v>437.5</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>460.41699999999997</v>
       </c>
       <c r="F20" s="3">
         <v>440</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>453.33300000000003</v>
       </c>
       <c r="H20" s="1">
         <v>450</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>440</v>
       </c>
       <c r="J20" s="4">
@@ -2096,31 +2096,31 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>740.41700000000003</v>
       </c>
       <c r="B21" s="1">
         <v>743.33299999999997</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>744.58299999999997</v>
       </c>
       <c r="D21" s="1">
         <v>753.33299999999997</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>745</v>
       </c>
       <c r="F21" s="3">
         <v>759.58299999999997</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>750.41700000000003</v>
       </c>
       <c r="H21" s="1">
         <v>745.41700000000003</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>742.5</v>
       </c>
       <c r="J21" s="4">
@@ -2137,31 +2137,31 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>635.41700000000003</v>
       </c>
       <c r="B22" s="1">
         <v>662.5</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>632.08299999999997</v>
       </c>
       <c r="D22" s="1">
         <v>679.16700000000003</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>657.5</v>
       </c>
       <c r="F22" s="3">
         <v>655.41700000000003</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>639.58299999999997</v>
       </c>
       <c r="H22" s="1">
         <v>671.25</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>657.5</v>
       </c>
       <c r="J22" s="4">
@@ -2178,31 +2178,31 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>399.58300000000003</v>
       </c>
       <c r="B23" s="1">
         <v>396.66699999999997</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>412.91699999999997</v>
       </c>
       <c r="D23" s="1">
         <v>416.66699999999997</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>397.91699999999997</v>
       </c>
       <c r="F23" s="3">
         <v>408.75</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>395</v>
       </c>
       <c r="H23" s="1">
         <v>414.58300000000003</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>415.41699999999997</v>
       </c>
       <c r="J23" s="4">
@@ -2219,31 +2219,31 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>563.75</v>
       </c>
       <c r="B24" s="1">
         <v>605</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <v>582.08299999999997</v>
       </c>
       <c r="D24" s="1">
         <v>607.5</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>603.75</v>
       </c>
       <c r="F24" s="3">
         <v>568.75</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>561.66700000000003</v>
       </c>
       <c r="H24" s="1">
         <v>561.25</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>592.08299999999997</v>
       </c>
       <c r="J24" s="4">
@@ -2260,31 +2260,31 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>514.16700000000003</v>
       </c>
       <c r="B25" s="1">
         <v>537.08299999999997</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <v>539.58299999999997</v>
       </c>
       <c r="D25" s="1">
         <v>550</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>542.08299999999997</v>
       </c>
       <c r="F25" s="3">
         <v>531.25</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>527.5</v>
       </c>
       <c r="H25" s="1">
         <v>536.66700000000003</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>536.25</v>
       </c>
       <c r="J25" s="4">
@@ -2301,31 +2301,31 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>295.83300000000003</v>
       </c>
       <c r="B26" s="1">
         <v>309.58300000000003</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="7">
         <v>312.91699999999997</v>
       </c>
       <c r="D26" s="1">
         <v>319.16699999999997</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>312.91699999999997</v>
       </c>
       <c r="F26" s="3">
         <v>318.75</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>300</v>
       </c>
       <c r="H26" s="1">
         <v>309.16699999999997</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>309.58300000000003</v>
       </c>
       <c r="J26" s="4">
@@ -2342,31 +2342,31 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>481.25</v>
       </c>
       <c r="B27" s="1">
         <v>485.41699999999997</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <v>508.75</v>
       </c>
       <c r="D27" s="1">
         <v>475.83300000000003</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>488.33300000000003</v>
       </c>
       <c r="F27" s="3">
         <v>503.75</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>488.33300000000003</v>
       </c>
       <c r="H27" s="1">
         <v>493.75</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>499.58300000000003</v>
       </c>
       <c r="J27" s="4">
@@ -2383,31 +2383,31 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>431.25</v>
       </c>
       <c r="B28" s="1">
         <v>442.08300000000003</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>414.58300000000003</v>
       </c>
       <c r="D28" s="1">
         <v>435.83300000000003</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>405</v>
       </c>
       <c r="F28" s="3">
         <v>435.41699999999997</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>421.66699999999997</v>
       </c>
       <c r="H28" s="1">
         <v>426.25</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>449.58300000000003</v>
       </c>
       <c r="J28" s="4">
@@ -2424,31 +2424,31 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>378.33300000000003</v>
       </c>
       <c r="B29" s="1">
         <v>364.58300000000003</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <v>363.33300000000003</v>
       </c>
       <c r="D29" s="1">
         <v>383.75</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>357.5</v>
       </c>
       <c r="F29" s="3">
         <v>384.16699999999997</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>350</v>
       </c>
       <c r="H29" s="1">
         <v>368.33300000000003</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>364.58300000000003</v>
       </c>
       <c r="J29" s="4">
@@ -2465,31 +2465,31 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>538.33299999999997</v>
       </c>
       <c r="B30" s="1">
         <v>532.91700000000003</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="7">
         <v>485.83300000000003</v>
       </c>
       <c r="D30" s="1">
         <v>512.08299999999997</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>482.5</v>
       </c>
       <c r="F30" s="3">
         <v>521.66700000000003</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>510</v>
       </c>
       <c r="H30" s="1">
         <v>487.5</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>477.91699999999997</v>
       </c>
       <c r="J30" s="4">
@@ -2506,31 +2506,31 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>481.66699999999997</v>
       </c>
       <c r="B31" s="1">
         <v>462.91699999999997</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>469.16699999999997</v>
       </c>
       <c r="D31" s="1">
         <v>465.41699999999997</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>462.08300000000003</v>
       </c>
       <c r="F31" s="3">
         <v>461.66699999999997</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>453.75</v>
       </c>
       <c r="H31" s="1">
         <v>462.08300000000003</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>449.58300000000003</v>
       </c>
       <c r="J31" s="4">
@@ -2547,31 +2547,31 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>315</v>
       </c>
       <c r="B32" s="1">
         <v>314.58300000000003</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>330.83300000000003</v>
       </c>
       <c r="D32" s="1">
         <v>285.41699999999997</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>303.75</v>
       </c>
       <c r="F32" s="3">
         <v>318.33300000000003</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>322.08300000000003</v>
       </c>
       <c r="H32" s="1">
         <v>296.25</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>322.08300000000003</v>
       </c>
       <c r="J32" s="4">
@@ -2588,31 +2588,31 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>623.33299999999997</v>
       </c>
       <c r="B33" s="1">
         <v>645</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>638.75</v>
       </c>
       <c r="D33" s="1">
         <v>663.75</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>648.33299999999997</v>
       </c>
       <c r="F33" s="3">
         <v>659.16700000000003</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>642.91700000000003</v>
       </c>
       <c r="H33" s="1">
         <v>633.33299999999997</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>643.75</v>
       </c>
       <c r="J33" s="4">
@@ -2629,31 +2629,31 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>507.5</v>
       </c>
       <c r="B34" s="1">
         <v>569.16700000000003</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>533.75</v>
       </c>
       <c r="D34" s="1">
         <v>556.25</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>551.66700000000003</v>
       </c>
       <c r="F34" s="3">
         <v>557.5</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="7">
         <v>536.25</v>
       </c>
       <c r="H34" s="1">
         <v>550</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>519.58299999999997</v>
       </c>
       <c r="J34" s="4">
@@ -2670,31 +2670,31 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>593.33299999999997</v>
       </c>
       <c r="B35" s="1">
         <v>612.91700000000003</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>591.66700000000003</v>
       </c>
       <c r="D35" s="1">
         <v>651.25</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>623.75</v>
       </c>
       <c r="F35" s="3">
         <v>651.25</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="7">
         <v>614.58299999999997</v>
       </c>
       <c r="H35" s="1">
         <v>624.58299999999997</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>592.5</v>
       </c>
       <c r="J35" s="4">
@@ -2711,31 +2711,31 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>468.33300000000003</v>
       </c>
       <c r="B36" s="1">
         <v>500.41699999999997</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>471.66699999999997</v>
       </c>
       <c r="D36" s="1">
         <v>521.25</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>495.41699999999997</v>
       </c>
       <c r="F36" s="3">
         <v>490.41699999999997</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="7">
         <v>429.58300000000003</v>
       </c>
       <c r="H36" s="1">
         <v>489.58300000000003</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>475</v>
       </c>
       <c r="J36" s="4">
@@ -2752,31 +2752,31 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>600.41700000000003</v>
       </c>
       <c r="B37" s="1">
         <v>614.58299999999997</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>629.16700000000003</v>
       </c>
       <c r="D37" s="1">
         <v>627.70799999999997</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>625.41700000000003</v>
       </c>
       <c r="F37" s="3">
         <v>646.25</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="7">
         <v>624.79200000000003</v>
       </c>
       <c r="H37" s="1">
         <v>612.08299999999997</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>632.5</v>
       </c>
       <c r="J37" s="4">
@@ -2793,31 +2793,31 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>527.08299999999997</v>
       </c>
       <c r="B38" s="1">
         <v>542.91700000000003</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="7">
         <v>555.83299999999997</v>
       </c>
       <c r="D38" s="1">
         <v>549.79200000000003</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>551.66700000000003</v>
       </c>
       <c r="F38" s="3">
         <v>563.33299999999997</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="7">
         <v>535.20799999999997</v>
       </c>
       <c r="H38" s="1">
         <v>560.83299999999997</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>544.58299999999997</v>
       </c>
       <c r="J38" s="4">
@@ -2834,31 +2834,31 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>423.75</v>
       </c>
       <c r="B39" s="1">
         <v>443.33300000000003</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="7">
         <v>440.41699999999997</v>
       </c>
       <c r="D39" s="1">
         <v>450</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>470.20800000000003</v>
       </c>
       <c r="F39" s="3">
         <v>440.625</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="7">
         <v>452.29199999999997</v>
       </c>
       <c r="H39" s="1">
         <v>460.41699999999997</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>451.45800000000003</v>
       </c>
       <c r="J39" s="4">
@@ -2875,31 +2875,31 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>441.25</v>
       </c>
       <c r="B40" s="1">
         <v>440.83300000000003</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="7">
         <v>486.25</v>
       </c>
       <c r="D40" s="1">
         <v>511.66699999999997</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>451.875</v>
       </c>
       <c r="F40" s="3">
         <v>484.79199999999997</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="7">
         <v>472.70800000000003</v>
       </c>
       <c r="H40" s="1">
         <v>495.83300000000003</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>493.95800000000003</v>
       </c>
       <c r="J40" s="4">
@@ -2916,31 +2916,31 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>349.58300000000003</v>
       </c>
       <c r="B41" s="1">
         <v>391.04199999999997</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>351.875</v>
       </c>
       <c r="D41" s="1">
         <v>396.875</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>400.41699999999997</v>
       </c>
       <c r="F41" s="3">
         <v>371.25</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="7">
         <v>379.16699999999997</v>
       </c>
       <c r="H41" s="1">
         <v>405.625</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>377.5</v>
       </c>
       <c r="J41" s="4">
@@ -2957,31 +2957,31 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>412.08300000000003</v>
       </c>
       <c r="B42" s="1">
         <v>466.04199999999997</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="7">
         <v>448.95800000000003</v>
       </c>
       <c r="D42" s="1">
         <v>496.875</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>477.91699999999997</v>
       </c>
       <c r="F42" s="3">
         <v>450</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>451.25</v>
       </c>
       <c r="H42" s="1">
         <v>483.125</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <v>434.58300000000003</v>
       </c>
       <c r="J42" s="4">
@@ -2998,31 +2998,31 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>427.91699999999997</v>
       </c>
       <c r="B43" s="1">
         <v>490.20800000000003</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="7">
         <v>565</v>
       </c>
       <c r="D43" s="1">
         <v>516.66700000000003</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>505</v>
       </c>
       <c r="F43" s="3">
         <v>498.75</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>497.70800000000003</v>
       </c>
       <c r="H43" s="1">
         <v>513.125</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <v>496.45800000000003</v>
       </c>
       <c r="J43" s="4">
@@ -3039,31 +3039,31 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>395.41699999999997</v>
       </c>
       <c r="B44" s="1">
         <v>471.04199999999997</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="7">
         <v>540</v>
       </c>
       <c r="D44" s="1">
         <v>480.41699999999997</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>499.16699999999997</v>
       </c>
       <c r="F44" s="3">
         <v>484.16699999999997</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>478.54199999999997</v>
       </c>
       <c r="H44" s="1">
         <v>471.45800000000003</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <v>478.95800000000003</v>
       </c>
       <c r="J44" s="4">
@@ -3080,31 +3080,31 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>923.33299999999997</v>
       </c>
       <c r="B45" s="1">
         <v>975.83299999999997</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>955.41700000000003</v>
       </c>
       <c r="D45" s="1">
         <v>983.33299999999997</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>956.25</v>
       </c>
       <c r="F45" s="3">
         <v>991.25</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>957.08299999999997</v>
       </c>
       <c r="H45" s="1">
         <v>976.66700000000003</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <v>952.5</v>
       </c>
       <c r="J45" s="4">
@@ -3121,31 +3121,31 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>445</v>
       </c>
       <c r="B46" s="1">
         <v>505.83300000000003</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>472.08300000000003</v>
       </c>
       <c r="D46" s="1">
         <v>524.16700000000003</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>492.91699999999997</v>
       </c>
       <c r="F46" s="3">
         <v>507.08300000000003</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <v>492.08300000000003</v>
       </c>
       <c r="H46" s="1">
         <v>453.33300000000003</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <v>483.33300000000003</v>
       </c>
       <c r="J46" s="4">
@@ -3162,31 +3162,31 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>652.5</v>
       </c>
       <c r="B47" s="1">
         <v>666.25</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>644.16700000000003</v>
       </c>
       <c r="D47" s="1">
         <v>704.16700000000003</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>692.91700000000003</v>
       </c>
       <c r="F47" s="3">
         <v>616.66700000000003</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="7">
         <v>642.08299999999997</v>
       </c>
       <c r="H47" s="1">
         <v>627.5</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <v>650</v>
       </c>
       <c r="J47" s="4">
@@ -3203,31 +3203,31 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>340.83300000000003</v>
       </c>
       <c r="B48" s="1">
         <v>343.75</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>345</v>
       </c>
       <c r="D48" s="1">
         <v>420.83300000000003</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>362.91699999999997</v>
       </c>
       <c r="F48" s="3">
         <v>313.33300000000003</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <v>349.58300000000003</v>
       </c>
       <c r="H48" s="1">
         <v>339.16699999999997</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <v>347.5</v>
       </c>
       <c r="J48" s="4">
@@ -3244,31 +3244,31 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>994.16700000000003</v>
       </c>
       <c r="B49" s="1">
         <v>1035.83</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>1037.92</v>
       </c>
       <c r="D49" s="1">
         <v>1045.42</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>1024.17</v>
       </c>
       <c r="F49" s="3">
         <v>1065.83</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>1032.5</v>
       </c>
       <c r="H49" s="1">
         <v>1049.17</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <v>1022.5</v>
       </c>
       <c r="J49" s="4">
@@ -3285,31 +3285,31 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>816.66700000000003</v>
       </c>
       <c r="B50" s="1">
         <v>871.66700000000003</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>877.91700000000003</v>
       </c>
       <c r="D50" s="1">
         <v>917.08299999999997</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>881.66700000000003</v>
       </c>
       <c r="F50" s="3">
         <v>877.5</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="7">
         <v>880.83299999999997</v>
       </c>
       <c r="H50" s="1">
         <v>857.5</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <v>880</v>
       </c>
       <c r="J50" s="4">
@@ -3326,31 +3326,31 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>897.5</v>
       </c>
       <c r="B51" s="1">
         <v>966.25</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>936.25</v>
       </c>
       <c r="D51" s="1">
         <v>972.91700000000003</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>967.91700000000003</v>
       </c>
       <c r="F51" s="3">
         <v>935.41700000000003</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="7">
         <v>914.58299999999997</v>
       </c>
       <c r="H51" s="1">
         <v>945</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <v>975.83299999999997</v>
       </c>
       <c r="J51" s="4">
@@ -3367,31 +3367,31 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>1005.83</v>
       </c>
       <c r="B52" s="1">
         <v>991.25</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="7">
         <v>993.75</v>
       </c>
       <c r="D52" s="1">
         <v>1037.92</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>995.41700000000003</v>
       </c>
       <c r="F52" s="3">
         <v>974.58299999999997</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="7">
         <v>1000.42</v>
       </c>
       <c r="H52" s="1">
         <v>997.5</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <v>944.16700000000003</v>
       </c>
       <c r="J52" s="4">
@@ -3408,31 +3408,31 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>791.66700000000003</v>
       </c>
       <c r="B53" s="1">
         <v>761.25</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="7">
         <v>781.25</v>
       </c>
       <c r="D53" s="1">
         <v>822.91700000000003</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>812.91700000000003</v>
       </c>
       <c r="F53" s="3">
         <v>794.16700000000003</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="7">
         <v>819.58299999999997</v>
       </c>
       <c r="H53" s="1">
         <v>835.41700000000003</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <v>782.91700000000003</v>
       </c>
       <c r="J53" s="4">
@@ -3449,31 +3449,31 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>832.5</v>
       </c>
       <c r="B54" s="1">
         <v>872.08299999999997</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="7">
         <v>825.41700000000003</v>
       </c>
       <c r="D54" s="1">
         <v>924.58299999999997</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>861.25</v>
       </c>
       <c r="F54" s="3">
         <v>836.66700000000003</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="7">
         <v>882.08299999999997</v>
       </c>
       <c r="H54" s="1">
         <v>866.25</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <v>857.08299999999997</v>
       </c>
       <c r="J54" s="4">
@@ -3490,31 +3490,31 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>928.33299999999997</v>
       </c>
       <c r="B55" s="1">
         <v>853.33299999999997</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="7">
         <v>890.83299999999997</v>
       </c>
       <c r="D55" s="1">
         <v>886.25</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>872.08299999999997</v>
       </c>
       <c r="F55" s="3">
         <v>853.33299999999997</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="7">
         <v>912.5</v>
       </c>
       <c r="H55" s="1">
         <v>848.33299999999997</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <v>887.5</v>
       </c>
       <c r="J55" s="4">
@@ -3531,31 +3531,31 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>929.16700000000003</v>
       </c>
       <c r="B56" s="1">
         <v>840.83299999999997</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="7">
         <v>862.5</v>
       </c>
       <c r="D56" s="1">
         <v>909.58299999999997</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>872.91700000000003</v>
       </c>
       <c r="F56" s="3">
         <v>836.66700000000003</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="7">
         <v>869.16700000000003</v>
       </c>
       <c r="H56" s="1">
         <v>852.5</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <v>888.33299999999997</v>
       </c>
       <c r="J56" s="4">
@@ -3572,31 +3572,31 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>1088.75</v>
       </c>
       <c r="B57" s="1">
         <v>1122.08</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="7">
         <v>1093.33</v>
       </c>
       <c r="D57" s="1">
         <v>1160.42</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>1095</v>
       </c>
       <c r="F57" s="3">
         <v>1150.42</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="7">
         <v>1088.75</v>
       </c>
       <c r="H57" s="1">
         <v>1124.58</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <v>1092.08</v>
       </c>
       <c r="J57" s="4">
@@ -3613,31 +3613,31 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>476.25</v>
       </c>
       <c r="B58" s="1">
         <v>570.41700000000003</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="7">
         <v>512.5</v>
       </c>
       <c r="D58" s="1">
         <v>614.58299999999997</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>499.16699999999997</v>
       </c>
       <c r="F58" s="3">
         <v>553.75</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="7">
         <v>505.41699999999997</v>
       </c>
       <c r="H58" s="1">
         <v>569.58299999999997</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <v>517.08299999999997</v>
       </c>
       <c r="J58" s="4">
@@ -3654,31 +3654,31 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>833.33299999999997</v>
       </c>
       <c r="B59" s="1">
         <v>862.08299999999997</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="7">
         <v>844.58299999999997</v>
       </c>
       <c r="D59" s="1">
         <v>904.58299999999997</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>940.41700000000003</v>
       </c>
       <c r="F59" s="3">
         <v>896.25</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="7">
         <v>885.41700000000003</v>
       </c>
       <c r="H59" s="1">
         <v>852.5</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>856.66700000000003</v>
       </c>
       <c r="J59" s="4">
@@ -3695,31 +3695,31 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>640.83299999999997</v>
       </c>
       <c r="B60" s="1">
         <v>692.91700000000003</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>712.91700000000003</v>
       </c>
       <c r="D60" s="1">
         <v>874.58299999999997</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>613.75</v>
       </c>
       <c r="F60" s="3">
         <v>731.25</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="7">
         <v>657.91700000000003</v>
       </c>
       <c r="H60" s="1">
         <v>711.66700000000003</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <v>633.33299999999997</v>
       </c>
       <c r="J60" s="4">
@@ -3736,31 +3736,31 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>670.41700000000003</v>
       </c>
       <c r="B61" s="1">
         <v>716.25</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>695.83299999999997</v>
       </c>
       <c r="D61" s="1">
         <v>728.33299999999997</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>687.5</v>
       </c>
       <c r="F61" s="3">
         <v>709.16700000000003</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="7">
         <v>688.75</v>
       </c>
       <c r="H61" s="1">
         <v>705.41700000000003</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <v>682.91700000000003</v>
       </c>
       <c r="J61" s="4">
@@ -3777,31 +3777,31 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>361.25</v>
       </c>
       <c r="B62" s="1">
         <v>459.58300000000003</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="7">
         <v>396.66699999999997</v>
       </c>
       <c r="D62" s="1">
         <v>427.5</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>404.16699999999997</v>
       </c>
       <c r="F62" s="3">
         <v>422.5</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>426.25</v>
       </c>
       <c r="H62" s="1">
         <v>406.25</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <v>388.75</v>
       </c>
       <c r="J62" s="4">
@@ -3818,31 +3818,31 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>651.66700000000003</v>
       </c>
       <c r="B63" s="1">
         <v>623.33299999999997</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="7">
         <v>605.83299999999997</v>
       </c>
       <c r="D63" s="1">
         <v>701.25</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>632.91700000000003</v>
       </c>
       <c r="F63" s="3">
         <v>641.25</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="7">
         <v>625.41700000000003</v>
       </c>
       <c r="H63" s="1">
         <v>626.66700000000003</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>622.5</v>
       </c>
       <c r="J63" s="4">
@@ -3859,31 +3859,31 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>356.66699999999997</v>
       </c>
       <c r="B64" s="1">
         <v>418.33300000000003</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="7">
         <v>345.83300000000003</v>
       </c>
       <c r="D64" s="1">
         <v>449.58300000000003</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>417.08300000000003</v>
       </c>
       <c r="F64" s="3">
         <v>412.08300000000003</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>387.91699999999997</v>
       </c>
       <c r="H64" s="1">
         <v>415</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <v>384.16699999999997</v>
       </c>
       <c r="J64" s="4">
@@ -3900,31 +3900,31 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>715.83299999999997</v>
       </c>
       <c r="B65" s="1">
         <v>697.08299999999997</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="7">
         <v>746.66700000000003</v>
       </c>
       <c r="D65" s="1">
         <v>776.66700000000003</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>712.91700000000003</v>
       </c>
       <c r="F65" s="3">
         <v>728.33299999999997</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <v>723.75</v>
       </c>
       <c r="H65" s="1">
         <v>726.66700000000003</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <v>692.5</v>
       </c>
       <c r="J65" s="4">
@@ -3941,31 +3941,31 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>406.66699999999997</v>
       </c>
       <c r="B66" s="1">
         <v>432.08300000000003</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="7">
         <v>451.66699999999997</v>
       </c>
       <c r="D66" s="1">
         <v>448.33300000000003</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>399.58300000000003</v>
       </c>
       <c r="F66" s="3">
         <v>428.33300000000003</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>389.58300000000003</v>
       </c>
       <c r="H66" s="1">
         <v>402.5</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <v>386.66699999999997</v>
       </c>
       <c r="J66" s="4">
@@ -3982,31 +3982,31 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>612.5</v>
       </c>
       <c r="B67" s="1">
         <v>592.5</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="7">
         <v>590.83299999999997</v>
       </c>
       <c r="D67" s="1">
         <v>604.16700000000003</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>570.41700000000003</v>
       </c>
       <c r="F67" s="3">
         <v>617.91700000000003</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <v>527.08299999999997</v>
       </c>
       <c r="H67" s="1">
         <v>581.66700000000003</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <v>574.16700000000003</v>
       </c>
       <c r="J67" s="4">
@@ -4023,31 +4023,31 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>363.33300000000003</v>
       </c>
       <c r="B68" s="1">
         <v>427.5</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="7">
         <v>460</v>
       </c>
       <c r="D68" s="1">
         <v>423.33300000000003</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>372.08300000000003</v>
       </c>
       <c r="F68" s="3">
         <v>402.91699999999997</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <v>325.41699999999997</v>
       </c>
       <c r="H68" s="1">
         <v>420</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <v>359.16699999999997</v>
       </c>
       <c r="J68" s="4">
@@ -4064,31 +4064,31 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>1292.92</v>
       </c>
       <c r="B69" s="1">
         <v>1422.08</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>1377.5</v>
       </c>
       <c r="D69" s="1">
         <v>1467.92</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>1374.58</v>
       </c>
       <c r="F69" s="3">
         <v>1452.5</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <v>1395.42</v>
       </c>
       <c r="H69" s="1">
         <v>1407.08</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>1375.42</v>
       </c>
       <c r="J69" s="4">
@@ -4105,31 +4105,31 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>1101.25</v>
       </c>
       <c r="B70" s="1">
         <v>1153.75</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="7">
         <v>1151.67</v>
       </c>
       <c r="D70" s="1">
         <v>1166.25</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>1136.25</v>
       </c>
       <c r="F70" s="3">
         <v>1157.5</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="7">
         <v>1122.92</v>
       </c>
       <c r="H70" s="1">
         <v>1113.75</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <v>1145.42</v>
       </c>
       <c r="J70" s="4">
@@ -4146,31 +4146,31 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>1048.33</v>
       </c>
       <c r="B71" s="1">
         <v>1070</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="7">
         <v>1048.75</v>
       </c>
       <c r="D71" s="1">
         <v>1106.67</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>1028.33</v>
       </c>
       <c r="F71" s="3">
         <v>1001.67</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <v>1026.25</v>
       </c>
       <c r="H71" s="1">
         <v>1003.75</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <v>999.58299999999997</v>
       </c>
       <c r="J71" s="4">
@@ -4187,31 +4187,31 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>780</v>
       </c>
       <c r="B72" s="1">
         <v>735.83299999999997</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="7">
         <v>742.91700000000003</v>
       </c>
       <c r="D72" s="1">
         <v>761.66700000000003</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>795</v>
       </c>
       <c r="F72" s="3">
         <v>797.5</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <v>803.75</v>
       </c>
       <c r="H72" s="1">
         <v>751.25</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <v>774.58299999999997</v>
       </c>
       <c r="J72" s="4">
@@ -4228,31 +4228,31 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>1170</v>
       </c>
       <c r="B73" s="1">
         <v>1253.33</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="7">
         <v>1209.58</v>
       </c>
       <c r="D73" s="1">
         <v>1261.67</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>1172.08</v>
       </c>
       <c r="F73" s="3">
         <v>1242.5</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="7">
         <v>1190</v>
       </c>
       <c r="H73" s="1">
         <v>1210.42</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="7">
         <v>1176.67</v>
       </c>
       <c r="J73" s="4">
@@ -4269,31 +4269,31 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>883.33299999999997</v>
       </c>
       <c r="B74" s="1">
         <v>917.5</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="7">
         <v>853.75</v>
       </c>
       <c r="D74" s="1">
         <v>990</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>897.91700000000003</v>
       </c>
       <c r="F74" s="3">
         <v>855.83299999999997</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>914.16700000000003</v>
       </c>
       <c r="H74" s="1">
         <v>897.08299999999997</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>867.5</v>
       </c>
       <c r="J74" s="4">
@@ -4310,31 +4310,31 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>583.75</v>
       </c>
       <c r="B75" s="1">
         <v>553.33299999999997</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="7">
         <v>569.16700000000003</v>
       </c>
       <c r="D75" s="1">
         <v>652.91700000000003</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>570.83299999999997</v>
       </c>
       <c r="F75" s="3">
         <v>612.91700000000003</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="7">
         <v>588.33299999999997</v>
       </c>
       <c r="H75" s="1">
         <v>633.75</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="7">
         <v>573.75</v>
       </c>
       <c r="J75" s="4">
@@ -4351,31 +4351,31 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>542.91700000000003</v>
       </c>
       <c r="B76" s="1">
         <v>581.66700000000003</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="7">
         <v>575.83299999999997</v>
       </c>
       <c r="D76" s="1">
         <v>602.08299999999997</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>535.83299999999997</v>
       </c>
       <c r="F76" s="3">
         <v>532.91700000000003</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <v>545</v>
       </c>
       <c r="H76" s="1">
         <v>589.58299999999997</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="7">
         <v>507.08300000000003</v>
       </c>
       <c r="J76" s="4">
@@ -4392,31 +4392,31 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>932.08299999999997</v>
       </c>
       <c r="B77" s="1">
         <v>1072.08</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="7">
         <v>998.75</v>
       </c>
       <c r="D77" s="1">
         <v>1112.92</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>998.75</v>
       </c>
       <c r="F77" s="3">
         <v>1076.25</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>1025.83</v>
       </c>
       <c r="H77" s="1">
         <v>1057.5</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="7">
         <v>980</v>
       </c>
       <c r="J77" s="4">
@@ -4433,31 +4433,31 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>685.41700000000003</v>
       </c>
       <c r="B78" s="1">
         <v>674.58299999999997</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="7">
         <v>677.91700000000003</v>
       </c>
       <c r="D78" s="1">
         <v>812.08299999999997</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>672.08299999999997</v>
       </c>
       <c r="F78" s="3">
         <v>686.25</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>747.5</v>
       </c>
       <c r="H78" s="1">
         <v>695</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="7">
         <v>659.16700000000003</v>
       </c>
       <c r="J78" s="4">
@@ -4474,31 +4474,31 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>868.33299999999997</v>
       </c>
       <c r="B79" s="1">
         <v>917.5</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="7">
         <v>930.41700000000003</v>
       </c>
       <c r="D79" s="1">
         <v>995</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>862.91700000000003</v>
       </c>
       <c r="F79" s="3">
         <v>942.91700000000003</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <v>879.58299999999997</v>
       </c>
       <c r="H79" s="1">
         <v>1016.25</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="7">
         <v>880.83299999999997</v>
       </c>
       <c r="J79" s="4">
@@ -4515,31 +4515,31 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>799.16700000000003</v>
       </c>
       <c r="B80" s="1">
         <v>865.83299999999997</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="7">
         <v>857.91700000000003</v>
       </c>
       <c r="D80" s="1">
         <v>839.16700000000003</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>848.75</v>
       </c>
       <c r="F80" s="3">
         <v>834.58299999999997</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <v>786.25</v>
       </c>
       <c r="H80" s="1">
         <v>743.75</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="7">
         <v>857.5</v>
       </c>
       <c r="J80" s="4">
@@ -4556,31 +4556,31 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>1159.58</v>
       </c>
       <c r="B81" s="1">
         <v>1309.58</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>1222.92</v>
       </c>
       <c r="D81" s="1">
         <v>1321.67</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>1182.08</v>
       </c>
       <c r="F81" s="3">
         <v>1340</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <v>1219.58</v>
       </c>
       <c r="H81" s="1">
         <v>1282.08</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="7">
         <v>1191.25</v>
       </c>
       <c r="J81" s="4">
@@ -4597,31 +4597,31 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>969.58299999999997</v>
       </c>
       <c r="B82" s="1">
         <v>975.41700000000003</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="7">
         <v>982.91700000000003</v>
       </c>
       <c r="D82" s="1">
         <v>1104.17</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>927.08299999999997</v>
       </c>
       <c r="F82" s="3">
         <v>1002.5</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="7">
         <v>996.25</v>
       </c>
       <c r="H82" s="1">
         <v>992.91700000000003</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="7">
         <v>952.91700000000003</v>
       </c>
       <c r="J82" s="4">
@@ -4638,31 +4638,31 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>727.08299999999997</v>
       </c>
       <c r="B83" s="1">
         <v>793.75</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="7">
         <v>815.83299999999997</v>
       </c>
       <c r="D83" s="1">
         <v>869.16700000000003</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>735.83299999999997</v>
       </c>
       <c r="F83" s="3">
         <v>820.41700000000003</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <v>775</v>
       </c>
       <c r="H83" s="1">
         <v>804.16700000000003</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="7">
         <v>771.66700000000003</v>
       </c>
       <c r="J83" s="4">
@@ -4679,31 +4679,31 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>387.08300000000003</v>
       </c>
       <c r="B84" s="1">
         <v>364.58300000000003</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="7">
         <v>360.83300000000003</v>
       </c>
       <c r="D84" s="1">
         <v>423.33300000000003</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>350.83300000000003</v>
       </c>
       <c r="F84" s="3">
         <v>423.75</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="7">
         <v>371.66699999999997</v>
       </c>
       <c r="H84" s="1">
         <v>345</v>
       </c>
-      <c r="I84" s="8">
+      <c r="I84" s="7">
         <v>385.83300000000003</v>
       </c>
       <c r="J84" s="4">
@@ -4720,31 +4720,31 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>1499.58</v>
       </c>
       <c r="B85" s="1">
         <v>1640.42</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="7">
         <v>1588.75</v>
       </c>
       <c r="D85" s="1">
         <v>1627.5</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>1543.33</v>
       </c>
       <c r="F85" s="3">
         <v>1622.08</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <v>1582.08</v>
       </c>
       <c r="H85" s="1">
         <v>1584.17</v>
       </c>
-      <c r="I85" s="8">
+      <c r="I85" s="7">
         <v>1569.17</v>
       </c>
       <c r="J85" s="4">
@@ -4761,31 +4761,31 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>819.58299999999997</v>
       </c>
       <c r="B86" s="1">
         <v>854.58299999999997</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="7">
         <v>827.91700000000003</v>
       </c>
       <c r="D86" s="1">
         <v>967.5</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="8">
         <v>824.16700000000003</v>
       </c>
       <c r="F86" s="3">
         <v>838.75</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <v>847.08299999999997</v>
       </c>
       <c r="H86" s="1">
         <v>842.5</v>
       </c>
-      <c r="I86" s="8">
+      <c r="I86" s="7">
         <v>841.66700000000003</v>
       </c>
       <c r="J86" s="4">
@@ -4802,31 +4802,31 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>445</v>
       </c>
       <c r="B87" s="1">
         <v>428.33300000000003</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="7">
         <v>431.66699999999997</v>
       </c>
       <c r="D87" s="1">
         <v>501.66699999999997</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="8">
         <v>429.16699999999997</v>
       </c>
       <c r="F87" s="3">
         <v>416.25</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="7">
         <v>442.91699999999997</v>
       </c>
       <c r="H87" s="1">
         <v>336.66699999999997</v>
       </c>
-      <c r="I87" s="8">
+      <c r="I87" s="7">
         <v>425</v>
       </c>
       <c r="J87" s="4">
@@ -4843,31 +4843,31 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>430.83300000000003</v>
       </c>
       <c r="B88" s="1">
         <v>382.5</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="7">
         <v>382.5</v>
       </c>
       <c r="D88" s="1">
         <v>389.16699999999997</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="8">
         <v>438.33300000000003</v>
       </c>
       <c r="F88" s="3">
         <v>258.75</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="7">
         <v>363.75</v>
       </c>
       <c r="H88" s="1">
         <v>381.66699999999997</v>
       </c>
-      <c r="I88" s="8">
+      <c r="I88" s="7">
         <v>357.5</v>
       </c>
       <c r="J88" s="4">
